--- a/data_IMUSA_clean.xlsx
+++ b/data_IMUSA_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\DATOS\Lepto_pets\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37ED209F-4716-428E-9277-DDEC2BD0D662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082846AF-3826-40FC-9AC7-64A8FE8F2105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9906" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9863" uniqueCount="629">
   <si>
     <t>sample_origin</t>
   </si>
@@ -28,7 +28,7 @@
     <t>sample_date</t>
   </si>
   <si>
-    <t>sample_ID</t>
+    <t>sample_id</t>
   </si>
   <si>
     <t>idfrac</t>
@@ -61,7 +61,7 @@
     <t>pregnancies</t>
   </si>
   <si>
-    <t>abort_stillbirths</t>
+    <t>abort_stillb</t>
   </si>
   <si>
     <t>breed_cat</t>
@@ -76,7 +76,7 @@
     <t>vac_any</t>
   </si>
   <si>
-    <t>vac_can_sext</t>
+    <t>vac_can_hex</t>
   </si>
   <si>
     <t>vac_rabies_st</t>
@@ -94,7 +94,7 @@
     <t>fun_hunting</t>
   </si>
   <si>
-    <t>feed_petfood</t>
+    <t>feed_pet_food</t>
   </si>
   <si>
     <t>feed_raw_meat</t>
@@ -169,40 +169,40 @@
     <t>rodent_sight_fr</t>
   </si>
   <si>
-    <t>MAT_ID</t>
+    <t>MAT_id</t>
   </si>
   <si>
     <t>MAT_res</t>
   </si>
   <si>
-    <t>AUT</t>
-  </si>
-  <si>
-    <t>CAS</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>COP</t>
-  </si>
-  <si>
-    <t>GRI</t>
-  </si>
-  <si>
-    <t>HAR</t>
-  </si>
-  <si>
-    <t>POM</t>
-  </si>
-  <si>
-    <t>PYR</t>
-  </si>
-  <si>
-    <t>AUS</t>
-  </si>
-  <si>
-    <t>TAR</t>
+    <t>Australis</t>
+  </si>
+  <si>
+    <t>Autumnalis</t>
+  </si>
+  <si>
+    <t>Castellonis</t>
+  </si>
+  <si>
+    <t>Canicola</t>
+  </si>
+  <si>
+    <t>Copenhageni</t>
+  </si>
+  <si>
+    <t>Grippothyphosa</t>
+  </si>
+  <si>
+    <t>Hardjo</t>
+  </si>
+  <si>
+    <t>Pomona</t>
+  </si>
+  <si>
+    <t>Pyrogenes</t>
+  </si>
+  <si>
+    <t>Tarassovi</t>
   </si>
   <si>
     <t>IMuSA I - CAS</t>
@@ -220,7 +220,7 @@
     <t>ESTE</t>
   </si>
   <si>
-    <t>Cat</t>
+    <t>Cats</t>
   </si>
   <si>
     <t>Adult</t>
@@ -229,7 +229,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Mixed-breed</t>
+    <t>Mixed breed</t>
   </si>
   <si>
     <t>4</t>
@@ -271,13 +271,13 @@
     <t>SUROESTE</t>
   </si>
   <si>
-    <t>Dog</t>
+    <t>Dogs</t>
   </si>
   <si>
     <t>Female</t>
   </si>
   <si>
-    <t>Toy poodle</t>
+    <t>Small breeds</t>
   </si>
   <si>
     <t>3</t>
@@ -340,7 +340,7 @@
     <t>820632606</t>
   </si>
   <si>
-    <t>Pitbull</t>
+    <t>Large breeds</t>
   </si>
   <si>
     <t>C3646</t>
@@ -400,9 +400,6 @@
     <t>820632311</t>
   </si>
   <si>
-    <t>Defined breed</t>
-  </si>
-  <si>
     <t>C3778</t>
   </si>
   <si>
@@ -590,6 +587,9 @@
   </si>
   <si>
     <t>820632601</t>
+  </si>
+  <si>
+    <t>Sí</t>
   </si>
   <si>
     <t>C3655</t>
@@ -1916,16 +1916,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1953,11 +1945,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2285,18 +2275,18 @@
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -2320,202 +2310,200 @@
     <col min="47" max="47" width="14" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2629,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ2" t="s">
         <v>72</v>
@@ -2811,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP3">
         <v>0</v>
@@ -2844,10 +2832,10 @@
         <v>92</v>
       </c>
       <c r="AZ3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BA3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB3" t="s">
         <v>72</v>
@@ -2984,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="s">
         <v>72</v>
@@ -3154,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ5" t="s">
         <v>72</v>
@@ -3330,7 +3318,7 @@
         <v>3</v>
       </c>
       <c r="AO6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP6">
         <v>3</v>
@@ -3363,10 +3351,10 @@
         <v>92</v>
       </c>
       <c r="AZ6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BA6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
@@ -3509,7 +3497,7 @@
         <v>2</v>
       </c>
       <c r="AP7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ7" t="s">
         <v>72</v>
@@ -3685,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="s">
         <v>72</v>
@@ -3855,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ9" t="s">
         <v>72</v>
@@ -3959,7 +3947,7 @@
         <v>72</v>
       </c>
       <c r="O10" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="P10" t="s">
         <v>70</v>
@@ -4037,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
         <v>0</v>
@@ -4064,7 +4052,7 @@
         <v>75</v>
       </c>
       <c r="AX10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AY10" t="s">
         <v>78</v>
@@ -4108,7 +4096,7 @@
         <v>44686</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
         <v>101</v>
@@ -4155,14 +4143,11 @@
       <c r="R11" t="s">
         <v>72</v>
       </c>
-      <c r="S11" t="s">
-        <v>72</v>
-      </c>
       <c r="T11" t="s">
         <v>72</v>
       </c>
       <c r="U11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s">
         <v>73</v>
@@ -4222,7 +4207,7 @@
         <v>3</v>
       </c>
       <c r="AO11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP11">
         <v>3</v>
@@ -4249,7 +4234,7 @@
         <v>75</v>
       </c>
       <c r="AX11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AY11" t="s">
         <v>78</v>
@@ -4293,13 +4278,13 @@
         <v>44686</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" t="s">
         <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F12" t="s">
         <v>82</v>
@@ -4401,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12">
         <v>0</v>
@@ -4416,7 +4401,7 @@
         <v>72</v>
       </c>
       <c r="AT12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU12" t="s">
         <v>89</v>
@@ -4428,7 +4413,7 @@
         <v>75</v>
       </c>
       <c r="AX12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AY12" t="s">
         <v>78</v>
@@ -4472,13 +4457,13 @@
         <v>44686</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -4519,9 +4504,6 @@
       <c r="R13" t="s">
         <v>72</v>
       </c>
-      <c r="S13" t="s">
-        <v>72</v>
-      </c>
       <c r="T13" t="s">
         <v>72</v>
       </c>
@@ -4586,7 +4568,7 @@
         <v>5</v>
       </c>
       <c r="AO13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP13">
         <v>5</v>
@@ -4601,7 +4583,7 @@
         <v>72</v>
       </c>
       <c r="AT13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU13" t="s">
         <v>89</v>
@@ -4613,7 +4595,7 @@
         <v>76</v>
       </c>
       <c r="AX13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AY13" t="s">
         <v>78</v>
@@ -4657,16 +4639,16 @@
         <v>44686</v>
       </c>
       <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
         <v>137</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>138</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>139</v>
-      </c>
-      <c r="F14" t="s">
-        <v>140</v>
       </c>
       <c r="G14">
         <v>-60.698127749999998</v>
@@ -4765,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ14" t="s">
         <v>73</v>
@@ -4789,7 +4771,7 @@
         <v>75</v>
       </c>
       <c r="AX14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AY14" t="s">
         <v>78</v>
@@ -4833,13 +4815,13 @@
         <v>44686</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
         <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F15" t="s">
         <v>96</v>
@@ -4941,7 +4923,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="s">
         <v>72</v>
@@ -4965,7 +4947,7 @@
         <v>76</v>
       </c>
       <c r="AX15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AY15" t="s">
         <v>78</v>
@@ -5009,13 +4991,13 @@
         <v>44686</v>
       </c>
       <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" t="s">
         <v>145</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>146</v>
-      </c>
-      <c r="E16" t="s">
-        <v>147</v>
       </c>
       <c r="F16" t="s">
         <v>96</v>
@@ -5111,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16" t="s">
         <v>72</v>
@@ -5132,7 +5114,7 @@
         <v>75</v>
       </c>
       <c r="AX16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AY16" t="s">
         <v>78</v>
@@ -5176,13 +5158,13 @@
         <v>44686</v>
       </c>
       <c r="C17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" t="s">
         <v>149</v>
-      </c>
-      <c r="D17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" t="s">
-        <v>150</v>
       </c>
       <c r="F17" t="s">
         <v>96</v>
@@ -5278,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="s">
         <v>72</v>
@@ -5302,7 +5284,7 @@
         <v>75</v>
       </c>
       <c r="AX17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AY17" t="s">
         <v>78</v>
@@ -5346,13 +5328,13 @@
         <v>44686</v>
       </c>
       <c r="C18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" t="s">
         <v>152</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>153</v>
-      </c>
-      <c r="E18" t="s">
-        <v>154</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -5454,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18" t="s">
         <v>73</v>
@@ -5478,16 +5460,16 @@
         <v>75</v>
       </c>
       <c r="AX18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AY18" t="s">
         <v>92</v>
       </c>
       <c r="AZ18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BA18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB18" t="s">
         <v>72</v>
@@ -5522,13 +5504,13 @@
         <v>44686</v>
       </c>
       <c r="C19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" t="s">
         <v>156</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>157</v>
-      </c>
-      <c r="E19" t="s">
-        <v>158</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -5573,7 +5555,7 @@
         <v>72</v>
       </c>
       <c r="U19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V19" t="s">
         <v>73</v>
@@ -5630,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ19" t="s">
         <v>73</v>
@@ -5645,7 +5627,7 @@
         <v>74</v>
       </c>
       <c r="AU19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV19" t="s">
         <v>72</v>
@@ -5654,7 +5636,7 @@
         <v>75</v>
       </c>
       <c r="AX19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AY19" t="s">
         <v>78</v>
@@ -5698,13 +5680,13 @@
         <v>44686</v>
       </c>
       <c r="C20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" t="s">
         <v>161</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>162</v>
-      </c>
-      <c r="E20" t="s">
-        <v>163</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
@@ -5800,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" t="s">
         <v>72</v>
@@ -5824,7 +5806,7 @@
         <v>75</v>
       </c>
       <c r="AX20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AY20" t="s">
         <v>78</v>
@@ -5868,13 +5850,13 @@
         <v>44687</v>
       </c>
       <c r="C21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" t="s">
         <v>165</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>166</v>
-      </c>
-      <c r="E21" t="s">
-        <v>167</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -5976,7 +5958,7 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="s">
         <v>72</v>
@@ -6000,7 +5982,7 @@
         <v>75</v>
       </c>
       <c r="AX21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AY21" t="s">
         <v>78</v>
@@ -6044,13 +6026,13 @@
         <v>44687</v>
       </c>
       <c r="C22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" t="s">
         <v>169</v>
-      </c>
-      <c r="D22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" t="s">
-        <v>170</v>
       </c>
       <c r="F22" t="s">
         <v>96</v>
@@ -6152,7 +6134,7 @@
         <v>2</v>
       </c>
       <c r="AO22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP22">
         <v>2</v>
@@ -6179,16 +6161,16 @@
         <v>75</v>
       </c>
       <c r="AX22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AY22" t="s">
         <v>92</v>
       </c>
       <c r="AZ22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BA22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB22" t="s">
         <v>72</v>
@@ -6223,16 +6205,16 @@
         <v>44687</v>
       </c>
       <c r="C23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" t="s">
         <v>172</v>
       </c>
-      <c r="D23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" t="s">
-        <v>173</v>
-      </c>
       <c r="F23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G23">
         <v>-60.658908840000002</v>
@@ -6337,7 +6319,7 @@
         <v>4</v>
       </c>
       <c r="AO23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP23">
         <v>4</v>
@@ -6352,7 +6334,7 @@
         <v>72</v>
       </c>
       <c r="AT23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU23" t="s">
         <v>75</v>
@@ -6364,16 +6346,16 @@
         <v>76</v>
       </c>
       <c r="AX23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AY23" t="s">
         <v>92</v>
       </c>
       <c r="AZ23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BA23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB23" t="s">
         <v>72</v>
@@ -6402,19 +6384,19 @@
     </row>
     <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" s="1">
         <v>44687</v>
       </c>
       <c r="C24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" t="s">
         <v>176</v>
-      </c>
-      <c r="D24" t="s">
-        <v>153</v>
-      </c>
-      <c r="E24" t="s">
-        <v>177</v>
       </c>
       <c r="F24" t="s">
         <v>96</v>
@@ -6432,7 +6414,7 @@
         <v>9.5</v>
       </c>
       <c r="K24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L24" t="s">
         <v>84</v>
@@ -6444,7 +6426,7 @@
         <v>72</v>
       </c>
       <c r="O24" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="P24" t="s">
         <v>86</v>
@@ -6455,14 +6437,11 @@
       <c r="R24" t="s">
         <v>73</v>
       </c>
-      <c r="S24" t="s">
-        <v>72</v>
-      </c>
       <c r="T24" t="s">
         <v>72</v>
       </c>
       <c r="U24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V24" t="s">
         <v>73</v>
@@ -6522,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP24">
         <v>0</v>
@@ -6549,7 +6528,7 @@
         <v>75</v>
       </c>
       <c r="AX24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY24" t="s">
         <v>78</v>
@@ -6593,13 +6572,13 @@
         <v>44687</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D25" t="s">
         <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F25" t="s">
         <v>82</v>
@@ -6640,14 +6619,11 @@
       <c r="R25" t="s">
         <v>73</v>
       </c>
-      <c r="S25" t="s">
-        <v>72</v>
-      </c>
       <c r="T25" t="s">
         <v>72</v>
       </c>
       <c r="U25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s">
         <v>73</v>
@@ -6707,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="AO25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP25">
         <v>0</v>
@@ -6734,7 +6710,7 @@
         <v>75</v>
       </c>
       <c r="AX25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AY25" t="s">
         <v>78</v>
@@ -6778,16 +6754,16 @@
         <v>44687</v>
       </c>
       <c r="C26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" t="s">
         <v>183</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>184</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>185</v>
-      </c>
-      <c r="F26" t="s">
-        <v>186</v>
       </c>
       <c r="G26">
         <v>-60.739229999999999</v>
@@ -6886,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="AO26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP26">
         <v>0</v>
@@ -6901,7 +6877,7 @@
         <v>72</v>
       </c>
       <c r="AT26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU26" t="s">
         <v>89</v>
@@ -6913,16 +6889,16 @@
         <v>75</v>
       </c>
       <c r="AX26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AY26" t="s">
         <v>92</v>
       </c>
       <c r="AZ26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BA26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB26" t="s">
         <v>72</v>
@@ -6957,13 +6933,13 @@
         <v>44687</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D27" t="s">
         <v>101</v>
       </c>
       <c r="E27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F27" t="s">
         <v>82</v>
@@ -6990,7 +6966,7 @@
         <v>73</v>
       </c>
       <c r="N27" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="O27" t="s">
         <v>69</v>
@@ -7004,9 +6980,6 @@
       <c r="R27" t="s">
         <v>72</v>
       </c>
-      <c r="S27" t="s">
-        <v>72</v>
-      </c>
       <c r="T27" t="s">
         <v>72</v>
       </c>
@@ -7071,7 +7044,7 @@
         <v>3</v>
       </c>
       <c r="AO27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP27">
         <v>3</v>
@@ -7104,10 +7077,10 @@
         <v>92</v>
       </c>
       <c r="AZ27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BA27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB27" t="s">
         <v>72</v>
@@ -7166,7 +7139,7 @@
         <v>9</v>
       </c>
       <c r="K28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L28" t="s">
         <v>84</v>
@@ -7175,10 +7148,10 @@
         <v>73</v>
       </c>
       <c r="N28" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="O28" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="P28" t="s">
         <v>86</v>
@@ -7189,14 +7162,11 @@
       <c r="R28" t="s">
         <v>72</v>
       </c>
-      <c r="S28" t="s">
-        <v>72</v>
-      </c>
       <c r="T28" t="s">
         <v>72</v>
       </c>
       <c r="U28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V28" t="s">
         <v>73</v>
@@ -7256,7 +7226,7 @@
         <v>2</v>
       </c>
       <c r="AO28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28">
         <v>2</v>
@@ -7360,7 +7330,7 @@
         <v>73</v>
       </c>
       <c r="N29" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="O29" t="s">
         <v>69</v>
@@ -7374,9 +7344,6 @@
       <c r="R29" t="s">
         <v>72</v>
       </c>
-      <c r="S29" t="s">
-        <v>72</v>
-      </c>
       <c r="T29" t="s">
         <v>72</v>
       </c>
@@ -7441,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="AO29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP29">
         <v>0</v>
@@ -7559,14 +7526,11 @@
       <c r="R30" t="s">
         <v>72</v>
       </c>
-      <c r="S30" t="s">
-        <v>72</v>
-      </c>
       <c r="T30" t="s">
         <v>72</v>
       </c>
       <c r="U30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V30" t="s">
         <v>73</v>
@@ -7626,7 +7590,7 @@
         <v>1</v>
       </c>
       <c r="AO30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP30">
         <v>1</v>
@@ -7659,10 +7623,10 @@
         <v>92</v>
       </c>
       <c r="AZ30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BA30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB30" t="s">
         <v>72</v>
@@ -7700,7 +7664,7 @@
         <v>199</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
         <v>200</v>
@@ -7744,14 +7708,11 @@
       <c r="R31" t="s">
         <v>72</v>
       </c>
-      <c r="S31" t="s">
-        <v>72</v>
-      </c>
       <c r="T31" t="s">
         <v>72</v>
       </c>
       <c r="U31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V31" t="s">
         <v>73</v>
@@ -7811,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="AO31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP31">
         <v>0</v>
@@ -7844,10 +7805,10 @@
         <v>92</v>
       </c>
       <c r="AZ31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BA31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB31" t="s">
         <v>72</v>
@@ -7987,7 +7948,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32" t="s">
         <v>72</v>
@@ -8064,7 +8025,7 @@
         <v>209</v>
       </c>
       <c r="F33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G33">
         <v>-60.604240419999996</v>
@@ -8157,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ33" t="s">
         <v>73</v>
@@ -8339,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="AO34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP34">
         <v>1</v>
@@ -8404,7 +8365,7 @@
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B35" s="1">
         <v>44693</v>
@@ -8518,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="AO35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP35">
         <v>0</v>
@@ -8536,7 +8497,7 @@
         <v>74</v>
       </c>
       <c r="AU35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV35" t="s">
         <v>73</v>
@@ -8583,7 +8544,7 @@
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" s="1">
         <v>44693</v>
@@ -8613,7 +8574,7 @@
         <v>9</v>
       </c>
       <c r="K36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L36" t="s">
         <v>68</v>
@@ -8697,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="AO36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP36">
         <v>0</v>
@@ -8712,7 +8673,7 @@
         <v>72</v>
       </c>
       <c r="AT36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU36" t="s">
         <v>98</v>
@@ -8870,7 +8831,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ37" t="s">
         <v>72</v>
@@ -9046,7 +9007,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ38" t="s">
         <v>72</v>
@@ -9076,10 +9037,10 @@
         <v>92</v>
       </c>
       <c r="AZ38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BA38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB38" t="s">
         <v>72</v>
@@ -9108,7 +9069,7 @@
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B39" s="1">
         <v>44694</v>
@@ -9222,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="AO39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP39">
         <v>0</v>
@@ -9255,10 +9216,10 @@
         <v>92</v>
       </c>
       <c r="AZ39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BA39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB39" t="s">
         <v>72</v>
@@ -9296,13 +9257,13 @@
         <v>232</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E40" t="s">
         <v>233</v>
       </c>
       <c r="F40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G40">
         <v>-60.674491879999998</v>
@@ -9395,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ40" t="s">
         <v>73</v>
@@ -9407,7 +9368,7 @@
         <v>72</v>
       </c>
       <c r="AT40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU40" t="s">
         <v>89</v>
@@ -9466,13 +9427,13 @@
         <v>235</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E41" t="s">
         <v>233</v>
       </c>
       <c r="F41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G41">
         <v>-60.674491879999998</v>
@@ -9565,7 +9526,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" t="s">
         <v>73</v>
@@ -9595,10 +9556,10 @@
         <v>92</v>
       </c>
       <c r="AZ41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BA41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB41" t="s">
         <v>72</v>
@@ -9636,13 +9597,13 @@
         <v>237</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E42" t="s">
         <v>233</v>
       </c>
       <c r="F42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G42">
         <v>-60.674491879999998</v>
@@ -9680,14 +9641,11 @@
       <c r="R42" t="s">
         <v>72</v>
       </c>
-      <c r="S42" t="s">
-        <v>72</v>
-      </c>
       <c r="T42" t="s">
         <v>72</v>
       </c>
       <c r="U42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V42" t="s">
         <v>73</v>
@@ -9747,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="AO42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP42">
         <v>1</v>
@@ -9821,13 +9779,13 @@
         <v>239</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E43" t="s">
         <v>240</v>
       </c>
       <c r="F43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G43">
         <v>-60.679733280000001</v>
@@ -9865,9 +9823,6 @@
       <c r="R43" t="s">
         <v>72</v>
       </c>
-      <c r="S43" t="s">
-        <v>72</v>
-      </c>
       <c r="T43" t="s">
         <v>72</v>
       </c>
@@ -9932,7 +9887,7 @@
         <v>1</v>
       </c>
       <c r="AO43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP43">
         <v>1</v>
@@ -9947,10 +9902,10 @@
         <v>72</v>
       </c>
       <c r="AT43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV43" t="s">
         <v>73</v>
@@ -10006,13 +9961,13 @@
         <v>242</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E44" t="s">
         <v>240</v>
       </c>
       <c r="F44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G44">
         <v>-60.679733280000001</v>
@@ -10044,14 +9999,11 @@
       <c r="R44" t="s">
         <v>72</v>
       </c>
-      <c r="S44" t="s">
-        <v>72</v>
-      </c>
       <c r="T44" t="s">
         <v>72</v>
       </c>
       <c r="U44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V44" t="s">
         <v>73</v>
@@ -10111,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="AO44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP44">
         <v>0</v>
@@ -10126,7 +10078,7 @@
         <v>72</v>
       </c>
       <c r="AT44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU44" t="s">
         <v>89</v>
@@ -10165,10 +10117,10 @@
         <v>72</v>
       </c>
       <c r="BG44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BH44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BI44" t="s">
         <v>72</v>
@@ -10185,13 +10137,13 @@
         <v>244</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E45" t="s">
         <v>240</v>
       </c>
       <c r="F45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G45">
         <v>-60.679733280000001</v>
@@ -10290,7 +10242,7 @@
         <v>0</v>
       </c>
       <c r="AO45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP45">
         <v>0</v>
@@ -10305,7 +10257,7 @@
         <v>72</v>
       </c>
       <c r="AT45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU45" t="s">
         <v>98</v>
@@ -10364,13 +10316,13 @@
         <v>246</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
         <v>240</v>
       </c>
       <c r="F46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G46">
         <v>-60.679733280000001</v>
@@ -10475,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="AO46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP46">
         <v>0</v>
@@ -10490,7 +10442,7 @@
         <v>72</v>
       </c>
       <c r="AT46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU46" t="s">
         <v>98</v>
@@ -10549,13 +10501,13 @@
         <v>248</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E47" t="s">
         <v>240</v>
       </c>
       <c r="F47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G47">
         <v>-60.679733280000001</v>
@@ -10579,7 +10531,7 @@
         <v>73</v>
       </c>
       <c r="N47" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="O47" t="s">
         <v>85</v>
@@ -10660,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="AO47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP47">
         <v>0</v>
@@ -10734,13 +10686,13 @@
         <v>251</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E48" t="s">
         <v>240</v>
       </c>
       <c r="F48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G48">
         <v>-60.679733280000001</v>
@@ -10845,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="AO48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP48">
         <v>0</v>
@@ -10878,10 +10830,10 @@
         <v>92</v>
       </c>
       <c r="AZ48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BA48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB48" t="s">
         <v>72</v>
@@ -10919,13 +10871,13 @@
         <v>253</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s">
         <v>240</v>
       </c>
       <c r="F49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G49">
         <v>-60.679733280000001</v>
@@ -10957,14 +10909,11 @@
       <c r="R49" t="s">
         <v>73</v>
       </c>
-      <c r="S49" t="s">
-        <v>72</v>
-      </c>
       <c r="T49" t="s">
         <v>72</v>
       </c>
       <c r="U49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V49" t="s">
         <v>73</v>
@@ -11024,7 +10973,7 @@
         <v>1</v>
       </c>
       <c r="AO49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP49">
         <v>1</v>
@@ -11039,10 +10988,10 @@
         <v>73</v>
       </c>
       <c r="AT49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV49" t="s">
         <v>73</v>
@@ -11057,10 +11006,10 @@
         <v>92</v>
       </c>
       <c r="AZ49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BA49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB49" t="s">
         <v>72</v>
@@ -11098,13 +11047,13 @@
         <v>255</v>
       </c>
       <c r="D50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E50" t="s">
         <v>240</v>
       </c>
       <c r="F50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G50">
         <v>-60.679733280000001</v>
@@ -11128,7 +11077,7 @@
         <v>73</v>
       </c>
       <c r="N50" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="O50" t="s">
         <v>69</v>
@@ -11209,7 +11158,7 @@
         <v>1</v>
       </c>
       <c r="AO50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP50">
         <v>1</v>
@@ -11227,7 +11176,7 @@
         <v>74</v>
       </c>
       <c r="AU50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV50" t="s">
         <v>73</v>
@@ -11283,13 +11232,13 @@
         <v>257</v>
       </c>
       <c r="D51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E51" t="s">
         <v>240</v>
       </c>
       <c r="F51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G51">
         <v>-60.679733280000001</v>
@@ -11394,7 +11343,7 @@
         <v>2</v>
       </c>
       <c r="AO51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP51">
         <v>2</v>
@@ -11468,13 +11417,13 @@
         <v>259</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E52" t="s">
         <v>240</v>
       </c>
       <c r="F52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G52">
         <v>-60.679733280000001</v>
@@ -11579,7 +11528,7 @@
         <v>0</v>
       </c>
       <c r="AO52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP52">
         <v>0</v>
@@ -11612,10 +11561,10 @@
         <v>92</v>
       </c>
       <c r="AZ52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BA52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB52" t="s">
         <v>72</v>
@@ -11764,7 +11713,7 @@
         <v>3</v>
       </c>
       <c r="AO53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP53">
         <v>3</v>
@@ -11779,7 +11728,7 @@
         <v>72</v>
       </c>
       <c r="AT53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU53" t="s">
         <v>116</v>
@@ -11943,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ54" t="s">
         <v>73</v>
@@ -11958,7 +11907,7 @@
         <v>74</v>
       </c>
       <c r="AU54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV54" t="s">
         <v>73</v>
@@ -12052,9 +12001,6 @@
       <c r="R55" t="s">
         <v>72</v>
       </c>
-      <c r="S55" t="s">
-        <v>72</v>
-      </c>
       <c r="T55" t="s">
         <v>72</v>
       </c>
@@ -12119,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AO55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP55">
         <v>1</v>
@@ -12137,7 +12083,7 @@
         <v>74</v>
       </c>
       <c r="AU55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV55" t="s">
         <v>73</v>
@@ -12193,7 +12139,7 @@
         <v>272</v>
       </c>
       <c r="D56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E56" t="s">
         <v>273</v>
@@ -12292,7 +12238,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ56" t="s">
         <v>72</v>
@@ -12407,14 +12353,11 @@
       <c r="R57" t="s">
         <v>72</v>
       </c>
-      <c r="S57" t="s">
-        <v>72</v>
-      </c>
       <c r="T57" t="s">
         <v>72</v>
       </c>
       <c r="U57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V57" t="s">
         <v>73</v>
@@ -12474,7 +12417,7 @@
         <v>1</v>
       </c>
       <c r="AO57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP57">
         <v>1</v>
@@ -12554,7 +12497,7 @@
         <v>283</v>
       </c>
       <c r="F58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G58">
         <v>-60.738520000000001</v>
@@ -12653,7 +12596,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ58" t="s">
         <v>73</v>
@@ -12829,7 +12772,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ59" t="s">
         <v>72</v>
@@ -12844,7 +12787,7 @@
         <v>88</v>
       </c>
       <c r="AU59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV59" t="s">
         <v>73</v>
@@ -12900,10 +12843,10 @@
         <v>289</v>
       </c>
       <c r="D60" t="s">
+        <v>183</v>
+      </c>
+      <c r="E60" t="s">
         <v>184</v>
-      </c>
-      <c r="E60" t="s">
-        <v>185</v>
       </c>
       <c r="F60" t="s">
         <v>274</v>
@@ -12930,7 +12873,7 @@
         <v>73</v>
       </c>
       <c r="N60" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="O60" t="s">
         <v>69</v>
@@ -13005,7 +12948,7 @@
         <v>3</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ60" t="s">
         <v>72</v>
@@ -13082,7 +13025,7 @@
         <v>292</v>
       </c>
       <c r="F61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G61">
         <v>-60.73169</v>
@@ -13103,7 +13046,7 @@
         <v>68</v>
       </c>
       <c r="O61" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="P61" t="s">
         <v>86</v>
@@ -13181,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="AO61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP61">
         <v>0</v>
@@ -13199,7 +13142,7 @@
         <v>88</v>
       </c>
       <c r="AU61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV61" t="s">
         <v>73</v>
@@ -13255,7 +13198,7 @@
         <v>294</v>
       </c>
       <c r="D62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E62" t="s">
         <v>295</v>
@@ -13366,7 +13309,7 @@
         <v>4</v>
       </c>
       <c r="AO62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP62">
         <v>4</v>
@@ -13551,7 +13494,7 @@
         <v>1</v>
       </c>
       <c r="AO63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP63">
         <v>1</v>
@@ -13569,7 +13512,7 @@
         <v>74</v>
       </c>
       <c r="AU63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV63" t="s">
         <v>73</v>
@@ -13631,7 +13574,7 @@
         <v>302</v>
       </c>
       <c r="F64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G64">
         <v>-60.730200000000004</v>
@@ -13724,7 +13667,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ64" t="s">
         <v>73</v>
@@ -13786,7 +13729,7 @@
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B65" s="1">
         <v>44712</v>
@@ -13900,7 +13843,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ65" t="s">
         <v>72</v>
@@ -13971,7 +13914,7 @@
         <v>307</v>
       </c>
       <c r="D66" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E66" t="s">
         <v>308</v>
@@ -14076,7 +14019,7 @@
         <v>3</v>
       </c>
       <c r="AP66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ66" t="s">
         <v>72</v>
@@ -14147,7 +14090,7 @@
         <v>310</v>
       </c>
       <c r="D67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E67" t="s">
         <v>311</v>
@@ -14252,7 +14195,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ67" t="s">
         <v>72</v>
@@ -14267,7 +14210,7 @@
         <v>74</v>
       </c>
       <c r="AU67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV67" t="s">
         <v>72</v>
@@ -14344,7 +14287,7 @@
         <v>9</v>
       </c>
       <c r="K68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L68" t="s">
         <v>84</v>
@@ -14367,14 +14310,11 @@
       <c r="R68" t="s">
         <v>72</v>
       </c>
-      <c r="S68" t="s">
-        <v>72</v>
-      </c>
       <c r="T68" t="s">
         <v>72</v>
       </c>
       <c r="U68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V68" t="s">
         <v>73</v>
@@ -14434,7 +14374,7 @@
         <v>0</v>
       </c>
       <c r="AO68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP68">
         <v>0</v>
@@ -14553,7 +14493,7 @@
         <v>72</v>
       </c>
       <c r="U69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V69" t="s">
         <v>73</v>
@@ -14610,7 +14550,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ69" t="s">
         <v>72</v>
@@ -14622,7 +14562,7 @@
         <v>72</v>
       </c>
       <c r="AU69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV69" t="s">
         <v>73</v>
@@ -14708,7 +14648,7 @@
         <v>73</v>
       </c>
       <c r="N70" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="O70" t="s">
         <v>69</v>
@@ -14789,7 +14729,7 @@
         <v>0</v>
       </c>
       <c r="AO70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP70">
         <v>0</v>
@@ -14863,13 +14803,13 @@
         <v>322</v>
       </c>
       <c r="D71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E71" t="s">
         <v>273</v>
       </c>
       <c r="F71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G71">
         <v>-60.729959999999998</v>
@@ -14893,7 +14833,7 @@
         <v>73</v>
       </c>
       <c r="N71" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="O71" t="s">
         <v>69</v>
@@ -14971,7 +14911,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ71" t="s">
         <v>73</v>
@@ -15138,7 +15078,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ72" t="s">
         <v>73</v>
@@ -15200,7 +15140,7 @@
     </row>
     <row r="73" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B73" s="1">
         <v>44746</v>
@@ -15230,7 +15170,7 @@
         <v>10</v>
       </c>
       <c r="K73" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L73" t="s">
         <v>68</v>
@@ -15251,7 +15191,7 @@
         <v>72</v>
       </c>
       <c r="U73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V73" t="s">
         <v>73</v>
@@ -15311,7 +15251,7 @@
         <v>0</v>
       </c>
       <c r="AO73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP73">
         <v>0</v>
@@ -15423,14 +15363,11 @@
       <c r="R74" t="s">
         <v>72</v>
       </c>
-      <c r="S74" t="s">
-        <v>72</v>
-      </c>
       <c r="T74" t="s">
         <v>72</v>
       </c>
       <c r="U74" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V74" t="s">
         <v>73</v>
@@ -15490,7 +15427,7 @@
         <v>0</v>
       </c>
       <c r="AO74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP74">
         <v>0</v>
@@ -15508,7 +15445,7 @@
         <v>74</v>
       </c>
       <c r="AU74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV74" t="s">
         <v>73</v>
@@ -15532,10 +15469,10 @@
         <v>72</v>
       </c>
       <c r="BC74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BD74" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BE74" t="s">
         <v>72</v>
@@ -15564,7 +15501,7 @@
         <v>333</v>
       </c>
       <c r="D75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E75" t="s">
         <v>334</v>
@@ -15608,9 +15545,6 @@
       <c r="R75" t="s">
         <v>72</v>
       </c>
-      <c r="S75" t="s">
-        <v>72</v>
-      </c>
       <c r="T75" t="s">
         <v>72</v>
       </c>
@@ -15675,7 +15609,7 @@
         <v>1</v>
       </c>
       <c r="AO75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP75">
         <v>1</v>
@@ -15854,7 +15788,7 @@
         <v>2</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ76" t="s">
         <v>72</v>
@@ -15869,7 +15803,7 @@
         <v>74</v>
       </c>
       <c r="AU76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV76" t="s">
         <v>73</v>
@@ -15925,7 +15859,7 @@
         <v>339</v>
       </c>
       <c r="D77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E77" t="s">
         <v>340</v>
@@ -16030,7 +15964,7 @@
         <v>0</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ77" t="s">
         <v>73</v>
@@ -16139,14 +16073,11 @@
       <c r="R78" t="s">
         <v>73</v>
       </c>
-      <c r="S78" t="s">
-        <v>72</v>
-      </c>
       <c r="T78" t="s">
         <v>72</v>
       </c>
       <c r="U78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V78" t="s">
         <v>73</v>
@@ -16206,7 +16137,7 @@
         <v>1</v>
       </c>
       <c r="AO78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP78">
         <v>1</v>
@@ -16385,7 +16316,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ79" t="s">
         <v>72</v>
@@ -16456,13 +16387,13 @@
         <v>347</v>
       </c>
       <c r="D80" t="s">
+        <v>137</v>
+      </c>
+      <c r="E80" t="s">
         <v>138</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>139</v>
-      </c>
-      <c r="F80" t="s">
-        <v>140</v>
       </c>
       <c r="G80">
         <v>-60.698127749999998</v>
@@ -16555,7 +16486,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ80" t="s">
         <v>73</v>
@@ -16731,7 +16662,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ81" t="s">
         <v>73</v>
@@ -16840,9 +16771,6 @@
       <c r="R82" t="s">
         <v>72</v>
       </c>
-      <c r="S82" t="s">
-        <v>72</v>
-      </c>
       <c r="T82" t="s">
         <v>72</v>
       </c>
@@ -16907,7 +16835,7 @@
         <v>0</v>
       </c>
       <c r="AO82">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP82">
         <v>0</v>
@@ -17025,14 +16953,11 @@
       <c r="R83" t="s">
         <v>72</v>
       </c>
-      <c r="S83" t="s">
-        <v>72</v>
-      </c>
       <c r="T83" t="s">
         <v>72</v>
       </c>
       <c r="U83" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V83" t="s">
         <v>73</v>
@@ -17092,7 +17017,7 @@
         <v>1</v>
       </c>
       <c r="AO83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP83">
         <v>1</v>
@@ -17166,7 +17091,7 @@
         <v>357</v>
       </c>
       <c r="D84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E84" t="s">
         <v>358</v>
@@ -17193,7 +17118,7 @@
         <v>68</v>
       </c>
       <c r="O84" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="P84" t="s">
         <v>86</v>
@@ -17265,7 +17190,7 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ84" t="s">
         <v>72</v>
@@ -17435,7 +17360,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ85" t="s">
         <v>72</v>
@@ -17450,7 +17375,7 @@
         <v>74</v>
       </c>
       <c r="AU85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV85" t="s">
         <v>72</v>
@@ -17611,7 +17536,7 @@
         <v>2</v>
       </c>
       <c r="AO86">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP86">
         <v>2</v>
@@ -17635,7 +17560,7 @@
         <v>73</v>
       </c>
       <c r="AW86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AX86" t="s">
         <v>365</v>
@@ -17784,7 +17709,7 @@
         <v>0</v>
       </c>
       <c r="AP87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ87" t="s">
         <v>72</v>
@@ -17858,7 +17783,7 @@
         <v>101</v>
       </c>
       <c r="E88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F88" t="s">
         <v>82</v>
@@ -17954,7 +17879,7 @@
         <v>0</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ88" t="s">
         <v>72</v>
@@ -18028,7 +17953,7 @@
         <v>80</v>
       </c>
       <c r="E89" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F89" t="s">
         <v>82</v>
@@ -18124,7 +18049,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ89" t="s">
         <v>73</v>
@@ -18300,7 +18225,7 @@
         <v>1</v>
       </c>
       <c r="AO90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP90">
         <v>1</v>
@@ -18374,7 +18299,7 @@
         <v>377</v>
       </c>
       <c r="D91" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E91" t="s">
         <v>378</v>
@@ -18401,7 +18326,7 @@
         <v>68</v>
       </c>
       <c r="O91" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="P91" t="s">
         <v>86</v>
@@ -18479,7 +18404,7 @@
         <v>1</v>
       </c>
       <c r="AO91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP91">
         <v>1</v>
@@ -18655,7 +18580,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ92" t="s">
         <v>72</v>
@@ -18732,7 +18657,7 @@
         <v>384</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G93">
         <v>-60.739528659999998</v>
@@ -18759,7 +18684,7 @@
         <v>72</v>
       </c>
       <c r="O93" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="P93" t="s">
         <v>86</v>
@@ -18837,7 +18762,7 @@
         <v>0</v>
       </c>
       <c r="AO93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP93">
         <v>0</v>
@@ -19016,7 +18941,7 @@
         <v>0</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ94" t="s">
         <v>72</v>
@@ -19087,13 +19012,13 @@
         <v>389</v>
       </c>
       <c r="D95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E95" t="s">
         <v>390</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G95">
         <v>-60.737549999999999</v>
@@ -19192,7 +19117,7 @@
         <v>0</v>
       </c>
       <c r="AO95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP95">
         <v>0</v>
@@ -19266,13 +19191,13 @@
         <v>392</v>
       </c>
       <c r="D96" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E96" t="s">
         <v>393</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G96">
         <v>-60.749169999999999</v>
@@ -19365,7 +19290,7 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ96" t="s">
         <v>73</v>
@@ -19436,13 +19361,13 @@
         <v>395</v>
       </c>
       <c r="D97" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E97" t="s">
         <v>393</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G97">
         <v>-60.749879999999997</v>
@@ -19541,7 +19466,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ97" t="s">
         <v>73</v>
@@ -19612,13 +19537,13 @@
         <v>397</v>
       </c>
       <c r="D98" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E98" t="s">
         <v>393</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G98">
         <v>-60.750999999999998</v>
@@ -19711,7 +19636,7 @@
         <v>3</v>
       </c>
       <c r="AP98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ98" t="s">
         <v>72</v>
@@ -19782,13 +19707,13 @@
         <v>399</v>
       </c>
       <c r="D99" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E99" t="s">
         <v>393</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G99">
         <v>-60.751440000000002</v>
@@ -19887,7 +19812,7 @@
         <v>6</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ99" t="s">
         <v>73</v>
@@ -19958,13 +19883,13 @@
         <v>401</v>
       </c>
       <c r="D100" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E100" t="s">
         <v>402</v>
       </c>
       <c r="F100" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G100">
         <v>-60.699260000000002</v>
@@ -20057,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="AP100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ100" t="s">
         <v>73</v>
@@ -20128,13 +20053,13 @@
         <v>404</v>
       </c>
       <c r="D101" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E101" t="s">
         <v>405</v>
       </c>
       <c r="F101" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G101">
         <v>-60.743549999999999</v>
@@ -20161,7 +20086,7 @@
         <v>72</v>
       </c>
       <c r="O101" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="P101" t="s">
         <v>86</v>
@@ -20172,14 +20097,11 @@
       <c r="R101" t="s">
         <v>72</v>
       </c>
-      <c r="S101" t="s">
-        <v>72</v>
-      </c>
       <c r="T101" t="s">
         <v>72</v>
       </c>
       <c r="U101" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V101" t="s">
         <v>73</v>
@@ -20239,7 +20161,7 @@
         <v>3</v>
       </c>
       <c r="AO101">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP101">
         <v>3</v>
@@ -20257,7 +20179,7 @@
         <v>74</v>
       </c>
       <c r="AU101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV101" t="s">
         <v>72</v>
@@ -20313,13 +20235,13 @@
         <v>407</v>
       </c>
       <c r="D102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E102" t="s">
         <v>393</v>
       </c>
       <c r="F102" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G102">
         <v>-60.751910000000002</v>
@@ -20424,7 +20346,7 @@
         <v>0</v>
       </c>
       <c r="AO102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP102">
         <v>0</v>
@@ -20475,10 +20397,10 @@
         <v>72</v>
       </c>
       <c r="BF102" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BG102" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BH102" t="s">
         <v>72</v>
@@ -20498,13 +20420,13 @@
         <v>409</v>
       </c>
       <c r="D103" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E103" t="s">
         <v>393</v>
       </c>
       <c r="F103" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G103">
         <v>-60.75121</v>
@@ -20603,7 +20525,7 @@
         <v>0</v>
       </c>
       <c r="AO103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP103">
         <v>0</v>
@@ -20677,13 +20599,13 @@
         <v>411</v>
       </c>
       <c r="D104" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E104" t="s">
         <v>393</v>
       </c>
       <c r="F104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G104">
         <v>-60.750810000000001</v>
@@ -20715,9 +20637,6 @@
       <c r="R104" t="s">
         <v>72</v>
       </c>
-      <c r="S104" t="s">
-        <v>72</v>
-      </c>
       <c r="T104" t="s">
         <v>72</v>
       </c>
@@ -20782,7 +20701,7 @@
         <v>1</v>
       </c>
       <c r="AO104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP104">
         <v>1</v>
@@ -20800,7 +20719,7 @@
         <v>74</v>
       </c>
       <c r="AU104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV104" t="s">
         <v>73</v>
@@ -20856,13 +20775,13 @@
         <v>413</v>
       </c>
       <c r="D105" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E105" t="s">
         <v>393</v>
       </c>
       <c r="F105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G105">
         <v>-60.748519999999999</v>
@@ -20961,7 +20880,7 @@
         <v>3</v>
       </c>
       <c r="AP105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ105" t="s">
         <v>72</v>
@@ -21032,13 +20951,13 @@
         <v>415</v>
       </c>
       <c r="D106" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E106" t="s">
         <v>416</v>
       </c>
       <c r="F106" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G106">
         <v>-60.7395</v>
@@ -21143,7 +21062,7 @@
         <v>0</v>
       </c>
       <c r="AO106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP106">
         <v>0</v>
@@ -21179,13 +21098,13 @@
         <v>72</v>
       </c>
       <c r="BA106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BB106" t="s">
         <v>73</v>
       </c>
       <c r="BC106" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BD106" t="s">
         <v>72</v>
@@ -21217,13 +21136,13 @@
         <v>418</v>
       </c>
       <c r="D107" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E107" t="s">
         <v>419</v>
       </c>
       <c r="F107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G107">
         <v>-60.740652580000003</v>
@@ -21316,7 +21235,7 @@
         <v>2</v>
       </c>
       <c r="AP107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ107" t="s">
         <v>73</v>
@@ -21387,13 +21306,13 @@
         <v>421</v>
       </c>
       <c r="D108" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E108" t="s">
         <v>393</v>
       </c>
       <c r="F108" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G108">
         <v>-60.751939999999998</v>
@@ -21420,7 +21339,7 @@
         <v>72</v>
       </c>
       <c r="O108" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="P108" t="s">
         <v>86</v>
@@ -21492,7 +21411,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ108" t="s">
         <v>72</v>
@@ -21563,13 +21482,13 @@
         <v>423</v>
       </c>
       <c r="D109" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E109" t="s">
         <v>424</v>
       </c>
       <c r="F109" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G109">
         <v>-60.744219999999999</v>
@@ -21662,7 +21581,7 @@
         <v>4</v>
       </c>
       <c r="AP109">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ109" t="s">
         <v>72</v>
@@ -21677,7 +21596,7 @@
         <v>88</v>
       </c>
       <c r="AU109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV109" t="s">
         <v>73</v>
@@ -21739,7 +21658,7 @@
         <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G110">
         <v>-60.604240419999996</v>
@@ -21766,7 +21685,7 @@
         <v>72</v>
       </c>
       <c r="O110" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="P110" t="s">
         <v>86</v>
@@ -21844,7 +21763,7 @@
         <v>0</v>
       </c>
       <c r="AO110">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP110">
         <v>0</v>
@@ -21859,7 +21778,7 @@
         <v>72</v>
       </c>
       <c r="AT110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU110" t="s">
         <v>89</v>
@@ -21909,7 +21828,7 @@
     </row>
     <row r="111" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B111" s="1">
         <v>44763</v>
@@ -21918,7 +21837,7 @@
         <v>428</v>
       </c>
       <c r="D111" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E111" t="s">
         <v>429</v>
@@ -22029,7 +21948,7 @@
         <v>0</v>
       </c>
       <c r="AO111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP111">
         <v>0</v>
@@ -22103,13 +22022,13 @@
         <v>430</v>
       </c>
       <c r="D112" t="s">
+        <v>137</v>
+      </c>
+      <c r="E112" t="s">
         <v>138</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>139</v>
-      </c>
-      <c r="F112" t="s">
-        <v>140</v>
       </c>
       <c r="G112">
         <v>-60.700885769999999</v>
@@ -22136,7 +22055,7 @@
         <v>72</v>
       </c>
       <c r="O112" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="P112" t="s">
         <v>86</v>
@@ -22214,7 +22133,7 @@
         <v>0</v>
       </c>
       <c r="AO112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP112">
         <v>0</v>
@@ -22294,7 +22213,7 @@
         <v>433</v>
       </c>
       <c r="F113" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G113">
         <v>-60.64105</v>
@@ -22399,7 +22318,7 @@
         <v>0</v>
       </c>
       <c r="AO113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP113">
         <v>0</v>
@@ -22414,7 +22333,7 @@
         <v>72</v>
       </c>
       <c r="AT113" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU113" t="s">
         <v>75</v>
@@ -22506,7 +22425,7 @@
         <v>72</v>
       </c>
       <c r="O114" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="P114" t="s">
         <v>86</v>
@@ -22578,7 +22497,7 @@
         <v>4</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ114" t="s">
         <v>72</v>
@@ -22655,7 +22574,7 @@
         <v>439</v>
       </c>
       <c r="F115" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G115">
         <v>-60.62625122</v>
@@ -22679,7 +22598,7 @@
         <v>73</v>
       </c>
       <c r="N115" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="O115" t="s">
         <v>69</v>
@@ -22760,7 +22679,7 @@
         <v>0</v>
       </c>
       <c r="AO115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP115">
         <v>0</v>
@@ -22840,7 +22759,7 @@
         <v>439</v>
       </c>
       <c r="F116" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G116">
         <v>-60.62625122</v>
@@ -22939,7 +22858,7 @@
         <v>0</v>
       </c>
       <c r="AO116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP116">
         <v>0</v>
@@ -23019,7 +22938,7 @@
         <v>439</v>
       </c>
       <c r="F117" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G117">
         <v>-60.62625122</v>
@@ -23115,7 +23034,7 @@
         <v>4</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ117" t="s">
         <v>73</v>
@@ -23192,7 +23111,7 @@
         <v>446</v>
       </c>
       <c r="F118" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G118">
         <v>-60.600285849999999</v>
@@ -23291,7 +23210,7 @@
         <v>0</v>
       </c>
       <c r="AO118">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP118">
         <v>0</v>
@@ -23306,7 +23225,7 @@
         <v>72</v>
       </c>
       <c r="AT118" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU118" t="s">
         <v>89</v>
@@ -23371,7 +23290,7 @@
         <v>439</v>
       </c>
       <c r="F119" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G119">
         <v>-60.62625122</v>
@@ -23476,7 +23395,7 @@
         <v>2</v>
       </c>
       <c r="AO119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP119">
         <v>2</v>
@@ -23491,7 +23410,7 @@
         <v>72</v>
       </c>
       <c r="AT119" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU119" t="s">
         <v>89</v>
@@ -23556,7 +23475,7 @@
         <v>439</v>
       </c>
       <c r="F120" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G120">
         <v>-60.62625122</v>
@@ -23649,7 +23568,7 @@
         <v>5</v>
       </c>
       <c r="AP120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ120" t="s">
         <v>72</v>
@@ -23726,7 +23645,7 @@
         <v>453</v>
       </c>
       <c r="F121" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G121">
         <v>-60.612520000000004</v>
@@ -23747,7 +23666,7 @@
         <v>68</v>
       </c>
       <c r="O121" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="P121" t="s">
         <v>110</v>
@@ -23825,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="AO121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP121">
         <v>0</v>
@@ -23905,7 +23824,7 @@
         <v>439</v>
       </c>
       <c r="F122" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G122">
         <v>-60.62625122</v>
@@ -23932,7 +23851,7 @@
         <v>72</v>
       </c>
       <c r="O122" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="P122" t="s">
         <v>86</v>
@@ -23950,7 +23869,7 @@
         <v>72</v>
       </c>
       <c r="U122" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V122" t="s">
         <v>73</v>
@@ -24010,7 +23929,7 @@
         <v>1</v>
       </c>
       <c r="AO122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP122">
         <v>1</v>
@@ -24090,7 +24009,7 @@
         <v>439</v>
       </c>
       <c r="F123" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G123">
         <v>-60.62625122</v>
@@ -24183,7 +24102,7 @@
         <v>3</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ123" t="s">
         <v>72</v>
@@ -24260,7 +24179,7 @@
         <v>439</v>
       </c>
       <c r="F124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G124">
         <v>-60.626358029999999</v>
@@ -24275,7 +24194,7 @@
         <v>9</v>
       </c>
       <c r="K124" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L124" t="s">
         <v>84</v>
@@ -24287,7 +24206,7 @@
         <v>72</v>
       </c>
       <c r="O124" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="P124" t="s">
         <v>110</v>
@@ -24298,14 +24217,11 @@
       <c r="R124" t="s">
         <v>72</v>
       </c>
-      <c r="S124" t="s">
-        <v>72</v>
-      </c>
       <c r="T124" t="s">
         <v>72</v>
       </c>
       <c r="U124" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V124" t="s">
         <v>73</v>
@@ -24365,7 +24281,7 @@
         <v>2</v>
       </c>
       <c r="AO124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP124">
         <v>2</v>
@@ -24445,7 +24361,7 @@
         <v>439</v>
       </c>
       <c r="F125" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G125">
         <v>-60.626358029999999</v>
@@ -24544,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="AP125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ125" t="s">
         <v>73</v>
@@ -24621,7 +24537,7 @@
         <v>446</v>
       </c>
       <c r="F126" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G126">
         <v>-60.600285849999999</v>
@@ -24659,9 +24575,6 @@
       <c r="R126" t="s">
         <v>72</v>
       </c>
-      <c r="S126" t="s">
-        <v>72</v>
-      </c>
       <c r="T126" t="s">
         <v>72</v>
       </c>
@@ -24726,7 +24639,7 @@
         <v>5</v>
       </c>
       <c r="AO126">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP126">
         <v>5</v>
@@ -24741,7 +24654,7 @@
         <v>72</v>
       </c>
       <c r="AT126" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU126" t="s">
         <v>116</v>
@@ -24806,7 +24719,7 @@
         <v>439</v>
       </c>
       <c r="F127" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G127">
         <v>-60.626358029999999</v>
@@ -24838,9 +24751,6 @@
       <c r="R127" t="s">
         <v>72</v>
       </c>
-      <c r="S127" t="s">
-        <v>72</v>
-      </c>
       <c r="T127" t="s">
         <v>72</v>
       </c>
@@ -24905,7 +24815,7 @@
         <v>2</v>
       </c>
       <c r="AO127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP127">
         <v>2</v>
@@ -25023,9 +24933,6 @@
       <c r="R128" t="s">
         <v>72</v>
       </c>
-      <c r="S128" t="s">
-        <v>72</v>
-      </c>
       <c r="T128" t="s">
         <v>72</v>
       </c>
@@ -25090,7 +24997,7 @@
         <v>4</v>
       </c>
       <c r="AO128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP128">
         <v>4</v>
@@ -25206,7 +25113,7 @@
         <v>72</v>
       </c>
       <c r="U129" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V129" t="s">
         <v>73</v>
@@ -25263,7 +25170,7 @@
         <v>4</v>
       </c>
       <c r="AP129">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ129" t="s">
         <v>72</v>
@@ -25334,7 +25241,7 @@
         <v>471</v>
       </c>
       <c r="D130" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E130" t="s">
         <v>472</v>
@@ -25439,7 +25346,7 @@
         <v>3</v>
       </c>
       <c r="AP130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ130" t="s">
         <v>72</v>
@@ -25615,7 +25522,7 @@
         <v>0</v>
       </c>
       <c r="AO131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP131">
         <v>0</v>
@@ -25633,7 +25540,7 @@
         <v>74</v>
       </c>
       <c r="AU131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV131" t="s">
         <v>73</v>
@@ -25788,7 +25695,7 @@
         <v>2</v>
       </c>
       <c r="AP132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ132" t="s">
         <v>72</v>
@@ -25904,7 +25811,7 @@
         <v>72</v>
       </c>
       <c r="U133" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V133" t="s">
         <v>73</v>
@@ -25964,7 +25871,7 @@
         <v>1</v>
       </c>
       <c r="AO133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP133">
         <v>1</v>
@@ -26071,7 +25978,7 @@
         <v>72</v>
       </c>
       <c r="O134" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="P134" t="s">
         <v>86</v>
@@ -26149,7 +26056,7 @@
         <v>0</v>
       </c>
       <c r="AO134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP134">
         <v>0</v>
@@ -26164,7 +26071,7 @@
         <v>72</v>
       </c>
       <c r="AT134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU134" t="s">
         <v>89</v>
@@ -26334,7 +26241,7 @@
         <v>1</v>
       </c>
       <c r="AO135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP135">
         <v>1</v>
@@ -26349,7 +26256,7 @@
         <v>72</v>
       </c>
       <c r="AT135" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU135" t="s">
         <v>89</v>
@@ -26513,7 +26420,7 @@
         <v>0</v>
       </c>
       <c r="AO136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP136">
         <v>0</v>
@@ -26531,7 +26438,7 @@
         <v>74</v>
       </c>
       <c r="AU136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV136" t="s">
         <v>73</v>
@@ -26632,7 +26539,7 @@
         <v>72</v>
       </c>
       <c r="U137" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V137" t="s">
         <v>73</v>
@@ -26692,7 +26599,7 @@
         <v>0</v>
       </c>
       <c r="AO137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP137">
         <v>0</v>
@@ -26793,7 +26700,7 @@
         <v>68</v>
       </c>
       <c r="O138" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="P138" t="s">
         <v>86</v>
@@ -26804,14 +26711,11 @@
       <c r="R138" t="s">
         <v>72</v>
       </c>
-      <c r="S138" t="s">
-        <v>72</v>
-      </c>
       <c r="T138" t="s">
         <v>72</v>
       </c>
       <c r="U138" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V138" t="s">
         <v>73</v>
@@ -26871,7 +26775,7 @@
         <v>0</v>
       </c>
       <c r="AO138">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP138">
         <v>0</v>
@@ -27044,7 +26948,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ139" t="s">
         <v>72</v>
@@ -27214,7 +27118,7 @@
         <v>9</v>
       </c>
       <c r="AP140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ140" t="s">
         <v>73</v>
@@ -27291,7 +27195,7 @@
         <v>499</v>
       </c>
       <c r="F141" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G141">
         <v>-60.724359999999997</v>
@@ -27390,7 +27294,7 @@
         <v>0</v>
       </c>
       <c r="AP141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ141" t="s">
         <v>72</v>
@@ -27572,7 +27476,7 @@
         <v>1</v>
       </c>
       <c r="AO142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP142">
         <v>1</v>
@@ -27587,7 +27491,7 @@
         <v>72</v>
       </c>
       <c r="AT142" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU142" t="s">
         <v>89</v>
@@ -27646,7 +27550,7 @@
         <v>504</v>
       </c>
       <c r="D143" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E143" t="s">
         <v>505</v>
@@ -27673,7 +27577,7 @@
         <v>68</v>
       </c>
       <c r="O143" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="P143" t="s">
         <v>249</v>
@@ -27751,7 +27655,7 @@
         <v>0</v>
       </c>
       <c r="AO143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP143">
         <v>0</v>
@@ -27825,7 +27729,7 @@
         <v>507</v>
       </c>
       <c r="D144" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E144" t="s">
         <v>416</v>
@@ -27863,9 +27767,6 @@
       <c r="R144" t="s">
         <v>72</v>
       </c>
-      <c r="S144" t="s">
-        <v>72</v>
-      </c>
       <c r="T144" t="s">
         <v>72</v>
       </c>
@@ -27930,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="AO144">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP144">
         <v>0</v>
@@ -28115,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="AO145">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP145">
         <v>0</v>
@@ -28180,7 +28081,7 @@
     </row>
     <row r="146" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B146" s="1">
         <v>44814</v>
@@ -28294,7 +28195,7 @@
         <v>0</v>
       </c>
       <c r="AO146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP146">
         <v>0</v>
@@ -28309,7 +28210,7 @@
         <v>72</v>
       </c>
       <c r="AT146" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU146" t="s">
         <v>89</v>
@@ -28359,7 +28260,7 @@
     </row>
     <row r="147" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B147" s="1">
         <v>44814</v>
@@ -28473,7 +28374,7 @@
         <v>0</v>
       </c>
       <c r="AO147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP147">
         <v>0</v>
@@ -28538,7 +28439,7 @@
     </row>
     <row r="148" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B148" s="1">
         <v>44814</v>
@@ -28652,7 +28553,7 @@
         <v>3</v>
       </c>
       <c r="AO148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP148">
         <v>3</v>
@@ -28667,7 +28568,7 @@
         <v>72</v>
       </c>
       <c r="AT148" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU148" t="s">
         <v>89</v>
@@ -28837,7 +28738,7 @@
         <v>0</v>
       </c>
       <c r="AO149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP149">
         <v>0</v>
@@ -29016,7 +28917,7 @@
         <v>0</v>
       </c>
       <c r="AP150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ150" t="s">
         <v>72</v>
@@ -29186,7 +29087,7 @@
         <v>2</v>
       </c>
       <c r="AP151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ151" t="s">
         <v>73</v>
@@ -29356,7 +29257,7 @@
         <v>2</v>
       </c>
       <c r="AP152">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ152" t="s">
         <v>72</v>
@@ -29448,7 +29349,7 @@
         <v>8</v>
       </c>
       <c r="K153" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L153" t="s">
         <v>84</v>
@@ -29538,7 +29439,7 @@
         <v>0</v>
       </c>
       <c r="AO153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP153">
         <v>0</v>
@@ -29656,9 +29557,6 @@
       <c r="R154" t="s">
         <v>72</v>
       </c>
-      <c r="S154" t="s">
-        <v>72</v>
-      </c>
       <c r="T154" t="s">
         <v>72</v>
       </c>
@@ -29723,7 +29621,7 @@
         <v>0</v>
       </c>
       <c r="AO154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP154">
         <v>0</v>
@@ -29741,7 +29639,7 @@
         <v>74</v>
       </c>
       <c r="AU154" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV154" t="s">
         <v>73</v>
@@ -29899,7 +29797,7 @@
         <v>2</v>
       </c>
       <c r="AP155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ155" t="s">
         <v>72</v>
@@ -29914,7 +29812,7 @@
         <v>88</v>
       </c>
       <c r="AU155" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV155" t="s">
         <v>72</v>
@@ -30075,7 +29973,7 @@
         <v>2</v>
       </c>
       <c r="AP156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ156" t="s">
         <v>72</v>
@@ -30245,7 +30143,7 @@
         <v>0</v>
       </c>
       <c r="AP157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ157" t="s">
         <v>72</v>
@@ -30354,14 +30252,11 @@
       <c r="R158" t="s">
         <v>72</v>
       </c>
-      <c r="S158" t="s">
-        <v>72</v>
-      </c>
       <c r="T158" t="s">
         <v>72</v>
       </c>
       <c r="U158" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V158" t="s">
         <v>72</v>
@@ -30421,7 +30316,7 @@
         <v>0</v>
       </c>
       <c r="AO158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP158">
         <v>0</v>
@@ -30436,7 +30331,7 @@
         <v>72</v>
       </c>
       <c r="AT158" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU158" t="s">
         <v>89</v>
@@ -30457,13 +30352,13 @@
         <v>72</v>
       </c>
       <c r="BA158" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BB158" t="s">
         <v>73</v>
       </c>
       <c r="BC158" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BD158" t="s">
         <v>72</v>
@@ -30475,10 +30370,10 @@
         <v>72</v>
       </c>
       <c r="BG158" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BH158" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BI158" t="s">
         <v>72</v>
@@ -30600,7 +30495,7 @@
         <v>2</v>
       </c>
       <c r="AP159">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ159" t="s">
         <v>73</v>
@@ -30770,7 +30665,7 @@
         <v>3</v>
       </c>
       <c r="AP160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ160" t="s">
         <v>73</v>
@@ -30841,13 +30736,13 @@
         <v>551</v>
       </c>
       <c r="D161" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E161" t="s">
         <v>273</v>
       </c>
       <c r="F161" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G161">
         <v>-60.727703089999999</v>
@@ -30952,7 +30847,7 @@
         <v>30</v>
       </c>
       <c r="AO161">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP161">
         <v>30</v>
@@ -31137,7 +31032,7 @@
         <v>1</v>
       </c>
       <c r="AO162">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP162">
         <v>1</v>
@@ -31152,10 +31047,10 @@
         <v>72</v>
       </c>
       <c r="AT162" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU162" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV162" t="s">
         <v>73</v>
@@ -31217,7 +31112,7 @@
         <v>384</v>
       </c>
       <c r="F163" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G163">
         <v>-60.739759999999997</v>
@@ -31249,14 +31144,11 @@
       <c r="R163" t="s">
         <v>72</v>
       </c>
-      <c r="S163" t="s">
-        <v>72</v>
-      </c>
       <c r="T163" t="s">
         <v>72</v>
       </c>
       <c r="U163" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V163" t="s">
         <v>73</v>
@@ -31316,7 +31208,7 @@
         <v>0</v>
       </c>
       <c r="AO163">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP163">
         <v>0</v>
@@ -31349,10 +31241,10 @@
         <v>92</v>
       </c>
       <c r="AZ163" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BA163" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB163" t="s">
         <v>72</v>
@@ -31495,7 +31387,7 @@
         <v>2</v>
       </c>
       <c r="AO164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP164">
         <v>2</v>
@@ -31510,7 +31402,7 @@
         <v>72</v>
       </c>
       <c r="AT164" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU164" t="s">
         <v>89</v>
@@ -31680,7 +31572,7 @@
         <v>0</v>
       </c>
       <c r="AO165">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP165">
         <v>0</v>
@@ -31853,7 +31745,7 @@
         <v>4</v>
       </c>
       <c r="AP166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ166" t="s">
         <v>72</v>
@@ -31930,7 +31822,7 @@
         <v>566</v>
       </c>
       <c r="F167" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G167">
         <v>-60.732689999999998</v>
@@ -32029,7 +31921,7 @@
         <v>4</v>
       </c>
       <c r="AP167">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ167" t="s">
         <v>72</v>
@@ -32205,7 +32097,7 @@
         <v>3</v>
       </c>
       <c r="AO168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP168">
         <v>3</v>
@@ -32381,7 +32273,7 @@
         <v>2</v>
       </c>
       <c r="AP169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ169" t="s">
         <v>73</v>
@@ -32458,7 +32350,7 @@
         <v>574</v>
       </c>
       <c r="F170" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G170">
         <v>-60.607230000000001</v>
@@ -32563,7 +32455,7 @@
         <v>0</v>
       </c>
       <c r="AO170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP170">
         <v>0</v>
@@ -32643,7 +32535,7 @@
         <v>446</v>
       </c>
       <c r="F171" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G171">
         <v>-60.603749999999998</v>
@@ -32748,7 +32640,7 @@
         <v>6</v>
       </c>
       <c r="AO171">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP171">
         <v>6</v>
@@ -32828,7 +32720,7 @@
         <v>209</v>
       </c>
       <c r="F172" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G172">
         <v>-60.599395749999999</v>
@@ -32927,7 +32819,7 @@
         <v>10</v>
       </c>
       <c r="AP172">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ172" t="s">
         <v>73</v>
@@ -33004,7 +32896,7 @@
         <v>574</v>
       </c>
       <c r="F173" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G173">
         <v>-60.61553</v>
@@ -33042,9 +32934,6 @@
       <c r="R173" t="s">
         <v>72</v>
       </c>
-      <c r="S173" t="s">
-        <v>72</v>
-      </c>
       <c r="T173" t="s">
         <v>72</v>
       </c>
@@ -33109,7 +32998,7 @@
         <v>0</v>
       </c>
       <c r="AO173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP173">
         <v>0</v>
@@ -33142,10 +33031,10 @@
         <v>92</v>
       </c>
       <c r="AZ173" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BA173" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB173" t="s">
         <v>72</v>
@@ -33189,7 +33078,7 @@
         <v>574</v>
       </c>
       <c r="F174" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G174">
         <v>-60.616880000000002</v>
@@ -33227,9 +33116,6 @@
       <c r="R174" t="s">
         <v>72</v>
       </c>
-      <c r="S174" t="s">
-        <v>72</v>
-      </c>
       <c r="T174" t="s">
         <v>72</v>
       </c>
@@ -33294,7 +33180,7 @@
         <v>0</v>
       </c>
       <c r="AO174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP174">
         <v>0</v>
@@ -33374,7 +33260,7 @@
         <v>446</v>
       </c>
       <c r="F175" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G175">
         <v>-60.607872010000001</v>
@@ -33467,7 +33353,7 @@
         <v>2</v>
       </c>
       <c r="AP175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ175" t="s">
         <v>73</v>
@@ -33544,7 +33430,7 @@
         <v>587</v>
       </c>
       <c r="F176" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G176">
         <v>-60.60924911</v>
@@ -33643,7 +33529,7 @@
         <v>1</v>
       </c>
       <c r="AO176">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP176">
         <v>1</v>
@@ -33658,7 +33544,7 @@
         <v>72</v>
       </c>
       <c r="AT176" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU176" t="s">
         <v>89</v>
@@ -33723,7 +33609,7 @@
         <v>590</v>
       </c>
       <c r="F177" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G177">
         <v>-60.589187619999997</v>
@@ -33822,7 +33708,7 @@
         <v>1</v>
       </c>
       <c r="AP177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ177" t="s">
         <v>73</v>
@@ -33899,7 +33785,7 @@
         <v>446</v>
       </c>
       <c r="F178" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G178">
         <v>-60.596761139999998</v>
@@ -33998,7 +33884,7 @@
         <v>0</v>
       </c>
       <c r="AP178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ178" t="s">
         <v>72</v>
@@ -34075,7 +33961,7 @@
         <v>433</v>
       </c>
       <c r="F179" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G179">
         <v>-60.633983999999998</v>
@@ -34113,14 +33999,11 @@
       <c r="R179" t="s">
         <v>72</v>
       </c>
-      <c r="S179" t="s">
-        <v>72</v>
-      </c>
       <c r="T179" t="s">
         <v>72</v>
       </c>
       <c r="U179" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V179" t="s">
         <v>73</v>
@@ -34180,7 +34063,7 @@
         <v>1</v>
       </c>
       <c r="AO179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP179">
         <v>1</v>
@@ -34260,7 +34143,7 @@
         <v>433</v>
       </c>
       <c r="F180" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G180">
         <v>-60.63235092</v>
@@ -34292,9 +34175,6 @@
       <c r="R180" t="s">
         <v>72</v>
       </c>
-      <c r="S180" t="s">
-        <v>72</v>
-      </c>
       <c r="T180" t="s">
         <v>72</v>
       </c>
@@ -34359,7 +34239,7 @@
         <v>2</v>
       </c>
       <c r="AO180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP180">
         <v>2</v>
@@ -34374,10 +34254,10 @@
         <v>73</v>
       </c>
       <c r="AT180" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU180" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV180" t="s">
         <v>73</v>
@@ -34439,7 +34319,7 @@
         <v>599</v>
       </c>
       <c r="F181" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G181">
         <v>-60.616195679999997</v>
@@ -34538,7 +34418,7 @@
         <v>0</v>
       </c>
       <c r="AO181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP181">
         <v>0</v>
@@ -34553,7 +34433,7 @@
         <v>72</v>
       </c>
       <c r="AT181" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU181" t="s">
         <v>89</v>
@@ -34618,7 +34498,7 @@
         <v>433</v>
       </c>
       <c r="F182" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G182">
         <v>-60.634426120000001</v>
@@ -34656,9 +34536,6 @@
       <c r="R182" t="s">
         <v>72</v>
       </c>
-      <c r="S182" t="s">
-        <v>72</v>
-      </c>
       <c r="T182" t="s">
         <v>72</v>
       </c>
@@ -34723,7 +34600,7 @@
         <v>0</v>
       </c>
       <c r="AO182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP182">
         <v>0</v>
@@ -34803,7 +34680,7 @@
         <v>433</v>
       </c>
       <c r="F183" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G183">
         <v>-60.634067539999997</v>
@@ -34839,7 +34716,7 @@
         <v>72</v>
       </c>
       <c r="U183" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V183" t="s">
         <v>73</v>
@@ -34896,7 +34773,7 @@
         <v>1</v>
       </c>
       <c r="AP183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ183" t="s">
         <v>72</v>
@@ -34973,7 +34850,7 @@
         <v>599</v>
       </c>
       <c r="F184" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G184">
         <v>-60.625186919999997</v>
@@ -35072,7 +34949,7 @@
         <v>3</v>
       </c>
       <c r="AP184">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ184" t="s">
         <v>73</v>
@@ -35084,7 +34961,7 @@
         <v>72</v>
       </c>
       <c r="AT184" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU184" t="s">
         <v>98</v>
@@ -35149,7 +35026,7 @@
         <v>433</v>
       </c>
       <c r="F185" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G185">
         <v>-60.629417420000003</v>
@@ -35176,7 +35053,7 @@
         <v>72</v>
       </c>
       <c r="O185" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="P185" t="s">
         <v>86</v>
@@ -35187,14 +35064,11 @@
       <c r="R185" t="s">
         <v>72</v>
       </c>
-      <c r="S185" t="s">
-        <v>72</v>
-      </c>
       <c r="T185" t="s">
         <v>72</v>
       </c>
       <c r="U185" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V185" t="s">
         <v>73</v>
@@ -35254,7 +35128,7 @@
         <v>1</v>
       </c>
       <c r="AO185">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP185">
         <v>1</v>
@@ -35269,7 +35143,7 @@
         <v>72</v>
       </c>
       <c r="AT185" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU185" t="s">
         <v>89</v>
@@ -35334,7 +35208,7 @@
         <v>433</v>
       </c>
       <c r="F186" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G186">
         <v>-60.634067539999997</v>
@@ -35372,9 +35246,6 @@
       <c r="R186" t="s">
         <v>72</v>
       </c>
-      <c r="S186" t="s">
-        <v>72</v>
-      </c>
       <c r="T186" t="s">
         <v>72</v>
       </c>
@@ -35439,7 +35310,7 @@
         <v>0</v>
       </c>
       <c r="AO186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP186">
         <v>0</v>
@@ -35519,7 +35390,7 @@
         <v>433</v>
       </c>
       <c r="F187" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G187">
         <v>-60.632676170000003</v>
@@ -35543,10 +35414,10 @@
         <v>73</v>
       </c>
       <c r="N187" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="O187" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="P187" t="s">
         <v>110</v>
@@ -35557,14 +35428,11 @@
       <c r="R187" t="s">
         <v>73</v>
       </c>
-      <c r="S187" t="s">
-        <v>72</v>
-      </c>
       <c r="T187" t="s">
         <v>72</v>
       </c>
       <c r="U187" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V187" t="s">
         <v>73</v>
@@ -35624,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="AO187">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP187">
         <v>0</v>
@@ -35639,7 +35507,7 @@
         <v>73</v>
       </c>
       <c r="AT187" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU187" t="s">
         <v>89</v>
@@ -35704,7 +35572,7 @@
         <v>433</v>
       </c>
       <c r="F188" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G188">
         <v>-60.635517120000003</v>
@@ -35742,9 +35610,6 @@
       <c r="R188" t="s">
         <v>72</v>
       </c>
-      <c r="S188" t="s">
-        <v>72</v>
-      </c>
       <c r="T188" t="s">
         <v>72</v>
       </c>
@@ -35809,7 +35674,7 @@
         <v>4</v>
       </c>
       <c r="AO188">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP188">
         <v>4</v>
@@ -35824,7 +35689,7 @@
         <v>72</v>
       </c>
       <c r="AT188" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU188" t="s">
         <v>89</v>
@@ -35889,7 +35754,7 @@
         <v>433</v>
       </c>
       <c r="F189" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G189">
         <v>-60.635089870000002</v>
@@ -35921,9 +35786,6 @@
       <c r="R189" t="s">
         <v>72</v>
       </c>
-      <c r="S189" t="s">
-        <v>72</v>
-      </c>
       <c r="T189" t="s">
         <v>72</v>
       </c>
@@ -35988,7 +35850,7 @@
         <v>1</v>
       </c>
       <c r="AO189">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP189">
         <v>1</v>
@@ -36062,13 +35924,13 @@
         <v>616</v>
       </c>
       <c r="D190" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E190" t="s">
         <v>617</v>
       </c>
       <c r="F190" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G190">
         <v>-60.698200229999998</v>
@@ -36100,9 +35962,6 @@
       <c r="R190" t="s">
         <v>73</v>
       </c>
-      <c r="S190" t="s">
-        <v>72</v>
-      </c>
       <c r="T190" t="s">
         <v>72</v>
       </c>
@@ -36167,7 +36026,7 @@
         <v>0</v>
       </c>
       <c r="AO190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP190">
         <v>0</v>
@@ -36241,13 +36100,13 @@
         <v>619</v>
       </c>
       <c r="D191" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E191" t="s">
         <v>617</v>
       </c>
       <c r="F191" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G191">
         <v>-60.697059629999998</v>
@@ -36346,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="AO191">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP191">
         <v>0</v>
@@ -36361,10 +36220,10 @@
         <v>72</v>
       </c>
       <c r="AT191" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU191" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV191" t="s">
         <v>73</v>
@@ -36420,13 +36279,13 @@
         <v>621</v>
       </c>
       <c r="D192" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E192" t="s">
         <v>617</v>
       </c>
       <c r="F192" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G192">
         <v>-60.697494509999999</v>
@@ -36447,7 +36306,7 @@
         <v>68</v>
       </c>
       <c r="O192" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="P192" t="s">
         <v>86</v>
@@ -36525,7 +36384,7 @@
         <v>0</v>
       </c>
       <c r="AO192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP192">
         <v>0</v>
@@ -36540,7 +36399,7 @@
         <v>72</v>
       </c>
       <c r="AT192" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU192" t="s">
         <v>89</v>
@@ -36599,13 +36458,13 @@
         <v>623</v>
       </c>
       <c r="D193" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E193" t="s">
         <v>240</v>
       </c>
       <c r="F193" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G193">
         <v>-60.675994869999997</v>
@@ -36698,7 +36557,7 @@
         <v>1</v>
       </c>
       <c r="AP193">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ193" t="s">
         <v>73</v>
@@ -36769,13 +36628,13 @@
         <v>625</v>
       </c>
       <c r="D194" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E194" t="s">
         <v>617</v>
       </c>
       <c r="F194" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G194">
         <v>-60.697517400000002</v>
@@ -36868,7 +36727,7 @@
         <v>5</v>
       </c>
       <c r="AP194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ194" t="s">
         <v>73</v>
@@ -36939,13 +36798,13 @@
         <v>627</v>
       </c>
       <c r="D195" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E195" t="s">
         <v>617</v>
       </c>
       <c r="F195" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G195">
         <v>-60.697292330000003</v>
@@ -37038,7 +36897,7 @@
         <v>4</v>
       </c>
       <c r="AP195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ195" t="s">
         <v>73</v>
